--- a/text_classification_hatespeech/PT/Experiments_pt.xlsx
+++ b/text_classification_hatespeech/PT/Experiments_pt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/text_classification_hatespeech/PT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD136DC-8E96-0D4E-9823-3BAD72DD4BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC66450B-F9EC-B547-8225-A9FD8E8BEB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36400" yWindow="500" windowWidth="29300" windowHeight="19700" activeTab="1" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="LR" sheetId="27" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -489,10 +490,7 @@
       <t xml:space="preserve">カエ </t>
     </rPh>
     <rPh sb="47" eb="49">
-      <t xml:space="preserve">ジッケン </t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t xml:space="preserve">ジッシ </t>
+      <t xml:space="preserve">ジッケン ジッシ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -901,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1245,7 +1243,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1320,7 +1318,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2610,7 +2608,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2662,7 +2660,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
